--- a/result/Bidding_43.xlsx
+++ b/result/Bidding_43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G335"/>
+  <dimension ref="A1:G336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2756,12 +2756,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BKZ-1599</t>
+          <t>BKZ-1588</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2772,31 +2772,19 @@
       <c r="D83" t="n">
         <v>11</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>1599</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BKZ-1616</t>
+          <t>BKZ-1599</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2807,19 +2795,31 @@
       <c r="D84" t="n">
         <v>11</v>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BKZ-1668</t>
+          <t>BKZ-1616</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2830,36 +2830,24 @@
       <c r="D85" t="n">
         <v>11</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>天醫</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>1668</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BKZ-1688</t>
+          <t>BKZ-1668</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>26000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2867,34 +2855,34 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>天醫</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BKZ-1689</t>
+          <t>BKZ-1688</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2902,34 +2890,34 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BKZ-1717</t>
+          <t>BKZ-1689</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2942,24 +2930,24 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BKZ-1777</t>
+          <t>BKZ-1717</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2970,54 +2958,54 @@
       <c r="D89" t="n">
         <v>12</v>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BKZ-1778</t>
+          <t>BKZ-1777</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1777</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="D90" t="n">
         <v>12</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>延年</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>1778</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BKZ-1789</t>
+          <t>BKZ-1778</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3030,34 +3018,34 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>延年</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BKZ-1818</t>
+          <t>BKZ-1789</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3070,52 +3058,64 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BKZ-1819</t>
+          <t>BKZ-1818</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="D93" t="n">
         <v>12</v>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BKZ-1858</t>
+          <t>BKZ-1819</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3128,70 +3128,70 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BKZ-1888</t>
+          <t>BKZ-1858</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D95" t="n">
         <v>12</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1888</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BKZ-1999</t>
+          <t>BKZ-1888</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="D96" t="n">
         <v>12</v>
       </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BKZ-2023</t>
+          <t>BKZ-1999</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3209,12 +3209,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BKZ-2121</t>
+          <t>BKZ-2023</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3232,52 +3232,40 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BKZ-2168</t>
+          <t>BKZ-2121</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2168</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D99" t="n">
         <v>13</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>天醫</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2168</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BKZ-2199</t>
+          <t>BKZ-2168</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2199</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3285,38 +3273,38 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>天醫</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2199</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BKZ-2222</t>
+          <t>BKZ-2199</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>2199</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3325,59 +3313,59 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>2199</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BKZ-2227</t>
+          <t>BKZ-2222</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2227</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>34000</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>天醫</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2227</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BKZ-2228</t>
+          <t>BKZ-2227</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2228</t>
+          <t>2227</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3388,77 +3376,89 @@
       <c r="D103" t="n">
         <v>13</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>天醫</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2227</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BKZ-2229</t>
+          <t>BKZ-2228</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>2228</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D104" t="n">
         <v>13</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2229</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BKZ-2255</t>
+          <t>BKZ-2229</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2255</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2229</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BKZ-2256</t>
+          <t>BKZ-2255</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3467,123 +3467,123 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>13</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BKZ-2288</t>
+          <t>BKZ-2256</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2288</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BKZ-2289</t>
+          <t>BKZ-2288</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2289</t>
+          <t>2288</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2289</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BKZ-2299</t>
+          <t>BKZ-2289</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2289</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BKZ-2323</t>
+          <t>BKZ-2299</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>2299</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
@@ -3592,12 +3592,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BKZ-2335</t>
+          <t>BKZ-2323</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2335</t>
+          <t>2323</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3608,31 +3608,19 @@
       <c r="D111" t="n">
         <v>13</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2335</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BKZ-2567</t>
+          <t>BKZ-2335</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>2335</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3643,19 +3631,31 @@
       <c r="D112" t="n">
         <v>14</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2335</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BKZ-2568</t>
+          <t>BKZ-2567</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2568</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3666,36 +3666,24 @@
       <c r="D113" t="n">
         <v>14</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>天醫</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2568</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BKZ-2588</t>
+          <t>BKZ-2568</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3703,34 +3691,34 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>天醫</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BKZ-2599</t>
+          <t>BKZ-2588</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>2588</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3743,24 +3731,24 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>2588</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BKZ-2669</t>
+          <t>BKZ-2599</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3773,34 +3761,34 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BKZ-2688</t>
+          <t>BKZ-2669</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2688</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3808,52 +3796,64 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2688</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BKZ-2699</t>
+          <t>BKZ-2688</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2699</t>
+          <t>2688</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D118" t="n">
         <v>14</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2688</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BKZ-2829</t>
+          <t>BKZ-2699</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2829</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3864,31 +3864,19 @@
       <c r="D119" t="n">
         <v>14</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2829</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BKZ-2999</t>
+          <t>BKZ-2829</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>2829</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3901,29 +3889,29 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>2829</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BKZ-3000</t>
+          <t>BKZ-2999</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2999</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3934,19 +3922,31 @@
       <c r="D121" t="n">
         <v>14</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2999</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BKZ-3139</t>
+          <t>BKZ-3000</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3139</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3957,31 +3957,19 @@
       <c r="D122" t="n">
         <v>15</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>生氣</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>3139</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BKZ-3199</t>
+          <t>BKZ-3139</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>3139</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3992,28 +3980,40 @@
       <c r="D123" t="n">
         <v>15</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>生氣</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3139</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BKZ-3333</t>
+          <t>BKZ-3199</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3333</t>
+          <t>3199</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>41000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
@@ -4022,47 +4022,35 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BKZ-3338</t>
+          <t>BKZ-3333</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3338</t>
+          <t>3333</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>41000</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>15</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>3338</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BKZ-3366</t>
+          <t>BKZ-3338</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>3366</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4071,33 +4059,33 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>3366</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BKZ-3377</t>
+          <t>BKZ-3366</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3377</t>
+          <t>3366</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4108,77 +4096,89 @@
       <c r="D127" t="n">
         <v>2</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BKZ-3399</t>
+          <t>BKZ-3377</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3399</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D128" t="n">
         <v>2</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>3399</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BKZ-3568</t>
+          <t>BKZ-3399</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3568</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3399</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BKZ-3579</t>
+          <t>BKZ-3568</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3579</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4189,31 +4189,19 @@
       <c r="D130" t="n">
         <v>15</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>3579</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BKZ-3588</t>
+          <t>BKZ-3579</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>3579</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4226,12 +4214,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>3579</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4243,12 +4231,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BKZ-3598</t>
+          <t>BKZ-3588</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3598</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4261,34 +4249,34 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>3598</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BKZ-3636</t>
+          <t>BKZ-3598</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3636</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -4301,29 +4289,29 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>3636</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BKZ-3679</t>
+          <t>BKZ-3636</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3636</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -4336,24 +4324,24 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3636</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BKZ-3699</t>
+          <t>BKZ-3679</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4364,19 +4352,31 @@
       <c r="D135" t="n">
         <v>15</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3679</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BKZ-3766</t>
+          <t>BKZ-3699</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3766</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4394,12 +4394,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BKZ-3888</t>
+          <t>BKZ-3766</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3888</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4417,12 +4417,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BKZ-3939</t>
+          <t>BKZ-3888</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>3939</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4433,31 +4433,19 @@
       <c r="D138" t="n">
         <v>16</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>生氣</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>3939</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BKZ-3999</t>
+          <t>BKZ-3939</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4468,19 +4456,31 @@
       <c r="D139" t="n">
         <v>16</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>生氣</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BKZ-5000</t>
+          <t>BKZ-3999</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4498,12 +4498,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BKZ-5068</t>
+          <t>BKZ-5000</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>5068</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4521,52 +4521,40 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BKZ-5088</t>
+          <t>BKZ-5068</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>5088</t>
+          <t>5068</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D142" t="n">
         <v>16</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>5088</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BKZ-5138</t>
+          <t>BKZ-5088</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5088</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -4574,145 +4562,145 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5088</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BKZ-5168</t>
+          <t>BKZ-5138</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>5168</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D144" t="n">
         <v>16</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5138</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BKZ-5178</t>
+          <t>BKZ-5168</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>5178</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="D145" t="n">
         <v>16</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>延年</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>5178</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BKZ-5188</t>
+          <t>BKZ-5178</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>5188</t>
+          <t>5178</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D146" t="n">
         <v>17</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>延年</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5178</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BKZ-5189</t>
+          <t>BKZ-5188</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>5189</t>
+          <t>5188</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D147" t="n">
         <v>17</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>5189</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BKZ-5200</t>
+          <t>BKZ-5189</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>5200</t>
+          <t>5189</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4723,19 +4711,31 @@
       <c r="D148" t="n">
         <v>17</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5189</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BKZ-5258</t>
+          <t>BKZ-5200</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4753,52 +4753,40 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BKZ-5277</t>
+          <t>BKZ-5258</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>5277</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D150" t="n">
         <v>17</v>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>5277</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BKZ-5288</t>
+          <t>BKZ-5277</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>5288</t>
+          <t>5277</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -4811,29 +4799,29 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>5288</t>
+          <t>5277</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BKZ-5388</t>
+          <t>BKZ-5288</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>5388</t>
+          <t>5288</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -4846,87 +4834,87 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>5388</t>
+          <t>5288</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BKZ-5555</t>
+          <t>BKZ-5388</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>5555</t>
+          <t>5388</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>36000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5388</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BKZ-5556</t>
+          <t>BKZ-5555</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>5556</t>
+          <t>5555</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>36000</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>17</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>5556</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BKZ-5558</t>
+          <t>BKZ-5556</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>5558</t>
+          <t>5556</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -4939,29 +4927,29 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>5558</t>
+          <t>5556</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BKZ-5568</t>
+          <t>BKZ-5558</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>5568</t>
+          <t>5558</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -4969,29 +4957,29 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>天醫</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>5568</t>
+          <t>5558</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BKZ-5577</t>
+          <t>BKZ-5568</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>5568</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5000,16 +4988,16 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>天醫</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>5568</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5021,12 +5009,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BKZ-5585</t>
+          <t>BKZ-5577</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>5585</t>
+          <t>5577</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5035,61 +5023,73 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>5585</t>
+          <t>5577</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BKZ-5588</t>
+          <t>BKZ-5585</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>5588</t>
+          <t>5585</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>32000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5585</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BKZ-5599</t>
+          <t>BKZ-5588</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5588</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>32000</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -5102,12 +5102,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BKZ-5657</t>
+          <t>BKZ-5599</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5116,38 +5116,26 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>18</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>5657</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BKZ-5658</t>
+          <t>BKZ-5657</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>5658</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -5160,29 +5148,29 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>5658</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BKZ-5668</t>
+          <t>BKZ-5658</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>5658</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -5190,34 +5178,34 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>天醫</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>5658</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BKZ-5677</t>
+          <t>BKZ-5668</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5668</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -5225,12 +5213,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>天醫</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5668</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -5242,44 +5230,56 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BKZ-5678</t>
+          <t>BKZ-5677</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>5678</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>26000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>3</v>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BKZ-5688</t>
+          <t>BKZ-5678</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>5688</t>
+          <t>5678</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>26000</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
@@ -5288,17 +5288,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BKZ-5689</t>
+          <t>BKZ-5688</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>5689</t>
+          <t>5688</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -5311,52 +5311,40 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BKZ-5699</t>
+          <t>BKZ-5689</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>5699</t>
+          <t>5689</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="D168" t="n">
         <v>18</v>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>5699</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BKZ-5757</t>
+          <t>BKZ-5699</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>5757</t>
+          <t>5699</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -5364,34 +5352,34 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>5757</t>
+          <t>5699</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BKZ-5758</t>
+          <t>BKZ-5757</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>5758</t>
+          <t>5757</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -5404,24 +5392,24 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>5758</t>
+          <t>5757</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BKZ-5777</t>
+          <t>BKZ-5758</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>5777</t>
+          <t>5758</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5432,24 +5420,36 @@
       <c r="D171" t="n">
         <v>19</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5758</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BKZ-5788</t>
+          <t>BKZ-5777</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>5788</t>
+          <t>5777</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -5462,47 +5462,35 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BKZ-5789</t>
+          <t>BKZ-5788</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>5789</t>
+          <t>5788</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D173" t="n">
         <v>19</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>5789</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BKZ-5818</t>
+          <t>BKZ-5789</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>5818</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5513,19 +5501,31 @@
       <c r="D174" t="n">
         <v>19</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5789</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BKZ-5828</t>
+          <t>BKZ-5818</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>5828</t>
+          <t>5818</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5536,31 +5536,19 @@
       <c r="D175" t="n">
         <v>19</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>生氣</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>5828</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BKZ-5855</t>
+          <t>BKZ-5828</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5828</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5573,12 +5561,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>生氣</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5828</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -5590,70 +5578,70 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BKZ-5858</t>
+          <t>BKZ-5855</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>5858</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D177" t="n">
         <v>19</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5855</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BKZ-5866</t>
+          <t>BKZ-5858</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>5866</t>
+          <t>5858</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="D178" t="n">
         <v>19</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>5866</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BKZ-5868</t>
+          <t>BKZ-5866</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>5868</t>
+          <t>5866</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5664,19 +5652,31 @@
       <c r="D179" t="n">
         <v>19</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5866</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BKZ-5885</t>
+          <t>BKZ-5868</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5868</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5694,163 +5694,151 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BKZ-5888</t>
+          <t>BKZ-5885</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>5888</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>21000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D181" t="n">
         <v>20</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>5888</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BKZ-5889</t>
+          <t>BKZ-5888</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>5889</t>
+          <t>5888</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>21000</t>
         </is>
       </c>
       <c r="D182" t="n">
         <v>20</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5888</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BKZ-5899</t>
+          <t>BKZ-5889</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>5899</t>
+          <t>5889</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>31000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D183" t="n">
         <v>20</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>5899</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BKZ-5957</t>
+          <t>BKZ-5899</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>5957</t>
+          <t>5899</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>31000</t>
         </is>
       </c>
       <c r="D184" t="n">
         <v>20</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5899</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BKZ-5978</t>
+          <t>BKZ-5957</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>5957</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>20</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>延年</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>5978</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BKZ-6000</t>
+          <t>BKZ-5978</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5861,59 +5849,59 @@
       <c r="D186" t="n">
         <v>20</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>延年</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5978</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BKZ-6168</t>
+          <t>BKZ-6000</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D187" t="n">
         <v>20</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>天醫</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>6168</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BKZ-6228</t>
+          <t>BKZ-6168</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -5921,29 +5909,29 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>生氣</t>
+          <t>天醫</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BKZ-6307</t>
+          <t>BKZ-6228</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>6307</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5956,29 +5944,29 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>生氣</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>6307</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BKZ-6336</t>
+          <t>BKZ-6307</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>6307</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5996,24 +5984,24 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>6307</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BKZ-6388</t>
+          <t>BKZ-6336</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6026,29 +6014,29 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BKZ-6389</t>
+          <t>BKZ-6388</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>6389</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6059,19 +6047,31 @@
       <c r="D192" t="n">
         <v>21</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>6388</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BKZ-6565</t>
+          <t>BKZ-6389</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>6565</t>
+          <t>6389</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6089,12 +6089,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BKZ-6568</t>
+          <t>BKZ-6565</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>6568</t>
+          <t>6565</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6105,31 +6105,19 @@
       <c r="D194" t="n">
         <v>21</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>天醫</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>6568</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BKZ-6655</t>
+          <t>BKZ-6568</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6568</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6140,19 +6128,31 @@
       <c r="D195" t="n">
         <v>21</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>天醫</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>6568</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BKZ-6665</t>
+          <t>BKZ-6655</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>6665</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6163,94 +6163,94 @@
       <c r="D196" t="n">
         <v>21</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>6665</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BKZ-6666</t>
+          <t>BKZ-6665</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>6666</t>
+          <t>6665</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>44000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>6666</t>
+          <t>6665</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BKZ-6668</t>
+          <t>BKZ-6666</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>6668</t>
+          <t>6666</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>44000</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>21</v>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BKZ-6669</t>
+          <t>BKZ-6668</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6668</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -6263,12 +6263,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BKZ-6677</t>
+          <t>BKZ-6669</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>6677</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6277,7 +6277,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
@@ -6286,12 +6286,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BKZ-6686</t>
+          <t>BKZ-6677</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>6686</t>
+          <t>6677</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
@@ -6309,21 +6309,21 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BKZ-6688</t>
+          <t>BKZ-6686</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>6688</t>
+          <t>6686</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
@@ -6332,52 +6332,40 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BKZ-6689</t>
+          <t>BKZ-6688</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>6689</t>
+          <t>6688</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>21</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>6689</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BKZ-6698</t>
+          <t>BKZ-6689</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>6698</t>
+          <t>6689</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -6390,7 +6378,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>6698</t>
+          <t>6689</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -6402,44 +6390,56 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BKZ-6699</t>
+          <t>BKZ-6698</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>6699</t>
+          <t>6698</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>3</v>
-      </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>6698</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BKZ-6768</t>
+          <t>BKZ-6699</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>6768</t>
+          <t>6699</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
@@ -6448,17 +6448,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BKZ-6777</t>
+          <t>BKZ-6768</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>6777</t>
+          <t>6768</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -6471,12 +6471,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BKZ-6788</t>
+          <t>BKZ-6777</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>6788</t>
+          <t>6777</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6487,89 +6487,77 @@
       <c r="D208" t="n">
         <v>22</v>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>6788</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BKZ-6789</t>
+          <t>BKZ-6788</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>6789</t>
+          <t>6788</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>3</v>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>6788</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BKZ-6799</t>
+          <t>BKZ-6789</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>6799</t>
+          <t>6789</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>22</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>6799</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BKZ-6828</t>
+          <t>BKZ-6799</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>6828</t>
+          <t>6799</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6582,57 +6570,69 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>生氣</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>6828</t>
+          <t>6799</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BKZ-6858</t>
+          <t>BKZ-6828</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>6858</t>
+          <t>6828</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D212" t="n">
         <v>22</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>生氣</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>6828</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BKZ-6868</t>
+          <t>BKZ-6858</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>6868</t>
+          <t>6858</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -6645,75 +6645,75 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BKZ-6869</t>
+          <t>BKZ-6868</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>6869</t>
+          <t>6868</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>21000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D214" t="n">
         <v>22</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>6869</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BKZ-6886</t>
+          <t>BKZ-6869</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>6886</t>
+          <t>6869</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>21000</t>
         </is>
       </c>
       <c r="D215" t="n">
         <v>22</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>6869</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BKZ-6888</t>
+          <t>BKZ-6886</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>6888</t>
+          <t>6886</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -6726,12 +6726,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BKZ-6889</t>
+          <t>BKZ-6888</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>6889</t>
+          <t>6888</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6742,36 +6742,24 @@
       <c r="D217" t="n">
         <v>23</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>6889</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BKZ-6898</t>
+          <t>BKZ-6889</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>6898</t>
+          <t>6889</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -6784,7 +6772,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>6898</t>
+          <t>6889</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -6796,17 +6784,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BKZ-6899</t>
+          <t>BKZ-6898</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>6899</t>
+          <t>6898</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -6814,29 +6802,29 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>6899</t>
+          <t>6898</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BKZ-6901</t>
+          <t>BKZ-6899</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>6901</t>
+          <t>6899</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6849,29 +6837,29 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>6901</t>
+          <t>6899</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BKZ-6957</t>
+          <t>BKZ-6901</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>6901</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6882,117 +6870,117 @@
       <c r="D221" t="n">
         <v>23</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>6901</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BKZ-6968</t>
+          <t>BKZ-6957</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>6968</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D222" t="n">
         <v>23</v>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>天醫</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>6968</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BKZ-6969</t>
+          <t>BKZ-6968</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>6969</t>
+          <t>6968</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D223" t="n">
         <v>23</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>天醫</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>6968</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BKZ-6988</t>
+          <t>BKZ-6969</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>6988</t>
+          <t>6969</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D224" t="n">
         <v>23</v>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>6988</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BKZ-6989</t>
+          <t>BKZ-6988</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>6989</t>
+          <t>6988</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -7000,34 +6988,34 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>6989</t>
+          <t>6988</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BKZ-6998</t>
+          <t>BKZ-6989</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>6989</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -7040,7 +7028,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>6989</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -7052,17 +7040,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BKZ-6999</t>
+          <t>BKZ-6998</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -7070,34 +7058,34 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BKZ-7117</t>
+          <t>BKZ-6999</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7117</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>26000</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -7105,29 +7093,29 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>7117</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BKZ-7222</t>
+          <t>BKZ-7117</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7222</t>
+          <t>7117</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7140,29 +7128,29 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>7222</t>
+          <t>7117</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BKZ-7225</t>
+          <t>BKZ-7222</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7225</t>
+          <t>7222</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7175,29 +7163,29 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>7225</t>
+          <t>7222</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BKZ-7286</t>
+          <t>BKZ-7225</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>7286</t>
+          <t>7225</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7210,29 +7198,29 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>天醫</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>7286</t>
+          <t>7225</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BKZ-7299</t>
+          <t>BKZ-7286</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>7299</t>
+          <t>7286</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -7243,19 +7231,31 @@
       <c r="D232" t="n">
         <v>24</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>天醫</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>7286</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BKZ-7398</t>
+          <t>BKZ-7299</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7398</t>
+          <t>7299</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7273,12 +7273,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BKZ-7589</t>
+          <t>BKZ-7398</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7589</t>
+          <t>7398</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7289,31 +7289,19 @@
       <c r="D234" t="n">
         <v>24</v>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>7589</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BKZ-7688</t>
+          <t>BKZ-7589</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>7688</t>
+          <t>7589</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7326,12 +7314,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>7688</t>
+          <t>7589</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -7343,12 +7331,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BKZ-7711</t>
+          <t>BKZ-7688</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>7711</t>
+          <t>7688</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7366,24 +7354,24 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>7711</t>
+          <t>7688</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BKZ-7717</t>
+          <t>BKZ-7711</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7717</t>
+          <t>7711</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7394,19 +7382,31 @@
       <c r="D237" t="n">
         <v>25</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>7711</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BKZ-7718</t>
+          <t>BKZ-7717</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7718</t>
+          <t>7717</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7417,31 +7417,19 @@
       <c r="D238" t="n">
         <v>25</v>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>7718</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BKZ-7766</t>
+          <t>BKZ-7718</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7766</t>
+          <t>7718</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7452,19 +7440,31 @@
       <c r="D239" t="n">
         <v>25</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>7718</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BKZ-7770</t>
+          <t>BKZ-7766</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7770</t>
+          <t>7766</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7475,214 +7475,202 @@
       <c r="D240" t="n">
         <v>25</v>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>7770</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BKZ-7777</t>
+          <t>BKZ-7770</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7777</t>
+          <t>7770</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
-      </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>7770</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BKZ-7778</t>
+          <t>BKZ-7777</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>7777</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>25</v>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>延年</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>7778</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>BKZ-7788</t>
+          <t>BKZ-7778</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>7788</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3</v>
-      </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>延年</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>7778</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>BKZ-7789</t>
+          <t>BKZ-7788</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>7789</t>
+          <t>7788</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>25</v>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>7789</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>BKZ-7797</t>
+          <t>BKZ-7789</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>7797</t>
+          <t>7789</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D245" t="n">
         <v>25</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>7789</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BKZ-7799</t>
+          <t>BKZ-7797</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>7799</t>
+          <t>7797</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3</v>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>7799</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>BKZ-7877</t>
+          <t>BKZ-7799</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7877</t>
+          <t>7799</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -7691,24 +7679,24 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>7877</t>
+          <t>7799</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>BKZ-7878</t>
+          <t>BKZ-7877</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>7878</t>
+          <t>7877</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -7719,59 +7707,59 @@
       <c r="D248" t="n">
         <v>25</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>7877</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BKZ-7888</t>
+          <t>BKZ-7878</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>7888</t>
+          <t>7878</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D249" t="n">
         <v>26</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>7888</t>
-        </is>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BKZ-7889</t>
+          <t>BKZ-7888</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>7889</t>
+          <t>7888</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -7779,52 +7767,64 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>7889</t>
+          <t>7888</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BKZ-7977</t>
+          <t>BKZ-7889</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>7977</t>
+          <t>7889</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="D251" t="n">
         <v>26</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>7889</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BKZ-7979</t>
+          <t>BKZ-7977</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>7979</t>
+          <t>7977</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7835,31 +7835,19 @@
       <c r="D252" t="n">
         <v>26</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>7979</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BKZ-7989</t>
+          <t>BKZ-7979</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7989</t>
+          <t>7979</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7877,24 +7865,24 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>7989</t>
+          <t>7979</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BKZ-7996</t>
+          <t>BKZ-7989</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7996</t>
+          <t>7989</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7912,24 +7900,24 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>7996</t>
+          <t>7989</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BKZ-7999</t>
+          <t>BKZ-7996</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7999</t>
+          <t>7996</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -7940,117 +7928,117 @@
       <c r="D255" t="n">
         <v>26</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>7996</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>BKZ-8088</t>
+          <t>BKZ-7999</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>8088</t>
+          <t>7999</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D256" t="n">
         <v>26</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>8088</t>
-        </is>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>BKZ-8128</t>
+          <t>BKZ-8088</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>8128</t>
+          <t>8088</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="D257" t="n">
         <v>26</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>8088</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>BKZ-8168</t>
+          <t>BKZ-8128</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>8168</t>
+          <t>8128</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D258" t="n">
         <v>26</v>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>天醫</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>8168</t>
-        </is>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>BKZ-8181</t>
+          <t>BKZ-8168</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>8181</t>
+          <t>8168</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -8058,34 +8046,34 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>天醫</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>8181</t>
+          <t>8168</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>BKZ-8188</t>
+          <t>BKZ-8181</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>8188</t>
+          <t>8181</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -8093,34 +8081,34 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>8188</t>
+          <t>8181</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>BKZ-8258</t>
+          <t>BKZ-8188</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>8258</t>
+          <t>8188</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -8128,29 +8116,29 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>8258</t>
+          <t>8188</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BKZ-8268</t>
+          <t>BKZ-8258</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>8268</t>
+          <t>8258</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -8163,29 +8151,29 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>天醫</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>8268</t>
+          <t>8258</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BKZ-8282</t>
+          <t>BKZ-8268</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>8282</t>
+          <t>8268</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -8196,19 +8184,31 @@
       <c r="D263" t="n">
         <v>27</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>天醫</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>8268</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>BKZ-8288</t>
+          <t>BKZ-8282</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>8288</t>
+          <t>8282</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8226,12 +8226,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>BKZ-8338</t>
+          <t>BKZ-8288</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>8338</t>
+          <t>8288</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8249,12 +8249,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>BKZ-8555</t>
+          <t>BKZ-8338</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>8555</t>
+          <t>8338</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -8265,31 +8265,19 @@
       <c r="D266" t="n">
         <v>27</v>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>8555</t>
-        </is>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>BKZ-8558</t>
+          <t>BKZ-8555</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>8558</t>
+          <t>8555</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -8300,19 +8288,31 @@
       <c r="D267" t="n">
         <v>27</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>8555</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>BKZ-8559</t>
+          <t>BKZ-8558</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>8559</t>
+          <t>8558</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -8330,12 +8330,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>BKZ-8568</t>
+          <t>BKZ-8559</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>8568</t>
+          <t>8559</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -8353,12 +8353,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>BKZ-8585</t>
+          <t>BKZ-8568</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>8585</t>
+          <t>8568</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -8376,52 +8376,40 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>BKZ-8588</t>
+          <t>BKZ-8585</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>8588</t>
+          <t>8585</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D271" t="n">
         <v>28</v>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>8588</t>
-        </is>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>BKZ-8599</t>
+          <t>BKZ-8588</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>8588</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -8434,52 +8422,64 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>8588</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BKZ-8666</t>
+          <t>BKZ-8599</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>8666</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D273" t="n">
         <v>28</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>8599</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>BKZ-8668</t>
+          <t>BKZ-8666</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>8668</t>
+          <t>8666</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -8492,47 +8492,35 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>BKZ-8669</t>
+          <t>BKZ-8668</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>8669</t>
+          <t>8668</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="D275" t="n">
         <v>28</v>
       </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>8669</t>
-        </is>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BKZ-8677</t>
+          <t>BKZ-8669</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>8677</t>
+          <t>8669</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -8543,19 +8531,31 @@
       <c r="D276" t="n">
         <v>28</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>8669</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>BKZ-8678</t>
+          <t>BKZ-8677</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>8678</t>
+          <t>8677</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -8566,94 +8566,82 @@
       <c r="D277" t="n">
         <v>28</v>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>延年</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>8678</t>
-        </is>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>BKZ-8688</t>
+          <t>BKZ-8678</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>8688</t>
+          <t>8678</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D278" t="n">
         <v>28</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>延年</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>8678</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>BKZ-8689</t>
+          <t>BKZ-8688</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>8689</t>
+          <t>8688</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="D279" t="n">
         <v>29</v>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>8689</t>
-        </is>
-      </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>BKZ-8698</t>
+          <t>BKZ-8689</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>8698</t>
+          <t>8689</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -8666,7 +8654,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>8698</t>
+          <t>8689</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -8678,17 +8666,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>BKZ-8768</t>
+          <t>BKZ-8698</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>8768</t>
+          <t>8698</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -8696,34 +8684,34 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>天醫</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>8768</t>
+          <t>8698</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>BKZ-8818</t>
+          <t>BKZ-8768</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>8818</t>
+          <t>8768</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -8731,52 +8719,64 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>天醫</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>8818</t>
+          <t>8768</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>BKZ-8819</t>
+          <t>BKZ-8818</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>8819</t>
+          <t>8818</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D283" t="n">
         <v>29</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>8818</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>BKZ-8838</t>
+          <t>BKZ-8819</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>8838</t>
+          <t>8819</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -8794,12 +8794,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>BKZ-8857</t>
+          <t>BKZ-8838</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>8857</t>
+          <t>8838</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -8817,17 +8817,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>BKZ-8868</t>
+          <t>BKZ-8857</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>8868</t>
+          <t>8857</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -8840,47 +8840,35 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>BKZ-8880</t>
+          <t>BKZ-8868</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>8880</t>
+          <t>8868</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D287" t="n">
         <v>29</v>
       </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>8880</t>
-        </is>
-      </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>BKZ-8885</t>
+          <t>BKZ-8880</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>8885</t>
+          <t>8880</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -8898,122 +8886,122 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>8885</t>
+          <t>8880</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BKZ-8886</t>
+          <t>BKZ-8885</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>8886</t>
+          <t>8885</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D289" t="n">
         <v>30</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>8885</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>BKZ-8888</t>
+          <t>BKZ-8886</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>8886</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>91000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>8888</t>
-        </is>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>BKZ-8889</t>
+          <t>BKZ-8888</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>8889</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>93000</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>8889</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>BKZ-8896</t>
+          <t>BKZ-8889</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>8896</t>
+          <t>8889</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -9026,24 +9014,24 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>8896</t>
+          <t>8889</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>BKZ-8897</t>
+          <t>BKZ-8896</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>8897</t>
+          <t>8896</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -9061,29 +9049,29 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>8897</t>
+          <t>8896</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BKZ-8898</t>
+          <t>BKZ-8897</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>8898</t>
+          <t>8897</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -9096,87 +9084,87 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>8898</t>
+          <t>8897</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>BKZ-8899</t>
+          <t>BKZ-8898</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>8899</t>
+          <t>8898</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>36000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3</v>
-      </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>8898</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>BKZ-8968</t>
+          <t>BKZ-8899</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>8968</t>
+          <t>8899</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>36000</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>30</v>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>天醫</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>8968</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>BKZ-8988</t>
+          <t>BKZ-8968</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>8988</t>
+          <t>8968</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -9184,110 +9172,122 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>天醫</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>8988</t>
+          <t>8968</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BKZ-8989</t>
+          <t>BKZ-8988</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>8989</t>
+          <t>8988</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D298" t="n">
         <v>30</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>8988</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BKZ-8999</t>
+          <t>BKZ-8989</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>8999</t>
+          <t>8989</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="D299" t="n">
         <v>30</v>
       </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>8999</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>BKZ-9000</t>
+          <t>BKZ-8999</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>8999</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D300" t="n">
         <v>30</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>8999</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>BKZ-9089</t>
+          <t>BKZ-9000</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>9089</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -9305,12 +9305,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BKZ-9099</t>
+          <t>BKZ-9089</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>9099</t>
+          <t>9089</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -9328,70 +9328,70 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BKZ-9168</t>
+          <t>BKZ-9099</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>9168</t>
+          <t>9099</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D303" t="n">
         <v>31</v>
       </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>天醫</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>9168</t>
-        </is>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BKZ-9188</t>
+          <t>BKZ-9168</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>9188</t>
+          <t>9168</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D304" t="n">
         <v>31</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>天醫</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>9168</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BKZ-9199</t>
+          <t>BKZ-9188</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>9199</t>
+          <t>9188</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -9409,70 +9409,70 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BKZ-9257</t>
+          <t>BKZ-9199</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>9257</t>
+          <t>9199</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D306" t="n">
         <v>31</v>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>9257</t>
-        </is>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BKZ-9319</t>
+          <t>BKZ-9257</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>9319</t>
+          <t>9257</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="D307" t="n">
         <v>31</v>
       </c>
-      <c r="E307" t="inlineStr"/>
-      <c r="F307" t="inlineStr"/>
-      <c r="G307" t="inlineStr"/>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>9257</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BKZ-9388</t>
+          <t>BKZ-9319</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>9388</t>
+          <t>9319</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -9490,12 +9490,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BKZ-9669</t>
+          <t>BKZ-9388</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>9669</t>
+          <t>9388</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -9513,52 +9513,40 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BKZ-9688</t>
+          <t>BKZ-9669</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>9688</t>
+          <t>9669</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D310" t="n">
         <v>31</v>
       </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>9688</t>
-        </is>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BKZ-9689</t>
+          <t>BKZ-9688</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>9689</t>
+          <t>9688</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -9566,29 +9554,29 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>9689</t>
+          <t>9688</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BKZ-9699</t>
+          <t>BKZ-9689</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>9699</t>
+          <t>9689</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -9601,29 +9589,29 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>9699</t>
+          <t>9689</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BKZ-9777</t>
+          <t>BKZ-9699</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>9777</t>
+          <t>9699</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -9634,19 +9622,31 @@
       <c r="D313" t="n">
         <v>32</v>
       </c>
-      <c r="E313" t="inlineStr"/>
-      <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>9699</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BKZ-9799</t>
+          <t>BKZ-9777</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>9799</t>
+          <t>9777</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -9664,12 +9664,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BKZ-9808</t>
+          <t>BKZ-9799</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>9808</t>
+          <t>9799</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -9680,31 +9680,19 @@
       <c r="D315" t="n">
         <v>32</v>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>9808</t>
-        </is>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BKZ-9855</t>
+          <t>BKZ-9808</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>9855</t>
+          <t>9808</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -9715,19 +9703,31 @@
       <c r="D316" t="n">
         <v>32</v>
       </c>
-      <c r="E316" t="inlineStr"/>
-      <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr"/>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>9808</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BKZ-9857</t>
+          <t>BKZ-9855</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>9857</t>
+          <t>9855</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -9738,31 +9738,19 @@
       <c r="D317" t="n">
         <v>32</v>
       </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>9857</t>
-        </is>
-      </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BKZ-9866</t>
+          <t>BKZ-9857</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>9857</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -9775,12 +9763,12 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>9866</t>
+          <t>9857</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -9792,12 +9780,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BKZ-9869</t>
+          <t>BKZ-9866</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>9869</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9810,34 +9798,34 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>伏位</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>9869</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BKZ-9888</t>
+          <t>BKZ-9869</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>9888</t>
+          <t>9869</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -9845,57 +9833,69 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>9888</t>
+          <t>9869</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BKZ-9889</t>
+          <t>BKZ-9888</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>9889</t>
+          <t>9888</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="D321" t="n">
         <v>33</v>
       </c>
-      <c r="E321" t="inlineStr"/>
-      <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr"/>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>9888</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BKZ-9898</t>
+          <t>BKZ-9889</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>9898</t>
+          <t>9889</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -9908,70 +9908,70 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BKZ-9899</t>
+          <t>BKZ-9898</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>9899</t>
+          <t>9898</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>21000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D323" t="n">
         <v>33</v>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>伏位</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>9899</t>
-        </is>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BKZ-9911</t>
+          <t>BKZ-9899</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>9911</t>
+          <t>9899</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>21000</t>
         </is>
       </c>
       <c r="D324" t="n">
         <v>33</v>
       </c>
-      <c r="E324" t="inlineStr"/>
-      <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr"/>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>9899</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BKZ-9912</t>
+          <t>BKZ-9911</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>9912</t>
+          <t>9911</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -9982,36 +9982,24 @@
       <c r="D325" t="n">
         <v>33</v>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>9912</t>
-        </is>
-      </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BKZ-9968</t>
+          <t>BKZ-9912</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>9968</t>
+          <t>9912</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -10019,34 +10007,34 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>天醫</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>9968</t>
+          <t>9912</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BKZ-9969</t>
+          <t>BKZ-9968</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>9969</t>
+          <t>9968</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -10054,34 +10042,34 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>天醫</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>9969</t>
+          <t>9968</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BKZ-9977</t>
+          <t>BKZ-9969</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>9977</t>
+          <t>9969</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -10089,29 +10077,29 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>伏位</t>
+          <t>普通</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>9977</t>
+          <t>9969</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BKZ-9981</t>
+          <t>BKZ-9977</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>9981</t>
+          <t>9977</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -10122,19 +10110,31 @@
       <c r="D329" t="n">
         <v>33</v>
       </c>
-      <c r="E329" t="inlineStr"/>
-      <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr"/>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>伏位</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>9977</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BKZ-9987</t>
+          <t>BKZ-9981</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>9987</t>
+          <t>9981</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -10145,89 +10145,77 @@
       <c r="D330" t="n">
         <v>33</v>
       </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>延年</t>
-        </is>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>9987</t>
-        </is>
-      </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BKZ-9988</t>
+          <t>BKZ-9987</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>9988</t>
+          <t>9987</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D331" t="n">
         <v>34</v>
       </c>
-      <c r="E331" t="inlineStr"/>
-      <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>延年</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>9987</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BKZ-9989</t>
+          <t>BKZ-9988</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>9989</t>
+          <t>9988</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D332" t="n">
         <v>34</v>
       </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>9989</t>
-        </is>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BKZ-9990</t>
+          <t>BKZ-9989</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>9990</t>
+          <t>9989</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -10238,67 +10226,102 @@
       <c r="D333" t="n">
         <v>34</v>
       </c>
-      <c r="E333" t="inlineStr"/>
-      <c r="F333" t="inlineStr"/>
-      <c r="G333" t="inlineStr"/>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>9989</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BKZ-9998</t>
+          <t>BKZ-9990</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>9998</t>
+          <t>9990</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D334" t="n">
         <v>34</v>
       </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>9998</t>
-        </is>
-      </c>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
+          <t>BKZ-9998</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>9998</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>34</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>9998</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
           <t>BKZ-9999</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
+      <c r="B336" t="inlineStr">
         <is>
           <t>9999</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
+      <c r="C336" t="inlineStr">
         <is>
           <t>99000</t>
         </is>
       </c>
-      <c r="D335" t="n">
+      <c r="D336" t="n">
         <v>1</v>
       </c>
-      <c r="E335" t="inlineStr"/>
-      <c r="F335" t="inlineStr"/>
-      <c r="G335" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
